--- a/web/excel/perkebunan.xlsx
+++ b/web/excel/perkebunan.xlsx
@@ -24,28 +24,31 @@
     <t>Karet</t>
   </si>
   <si>
-    <t>Kelapa Dalam</t>
+    <t>Kelapa</t>
   </si>
   <si>
     <t>Kelapa Sawit</t>
   </si>
   <si>
-    <t>Kakao</t>
+    <t>Kopi</t>
   </si>
   <si>
     <t>Lada</t>
   </si>
   <si>
-    <t>Kopi</t>
+    <t>Kakao</t>
+  </si>
+  <si>
+    <t>Kemiri</t>
   </si>
   <si>
     <t>Cengkeh</t>
   </si>
   <si>
-    <t>Pala</t>
+    <t>Lainnya</t>
   </si>
   <si>
-    <t>Kemiri</t>
+    <t>Pala</t>
   </si>
   <si>
     <t>Kayu Manis</t>
@@ -71,19 +74,12 @@
   <si>
     <t>Sagu</t>
   </si>
-  <si>
-    <t>Lainnya</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#\ ###\ ##0.00"/>
-  </numFmts>
-  <fonts count="11">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -98,53 +94,18 @@
       <sz val="12.0"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <color rgb="FF000000"/>
-      <name val="Sans-serif"/>
-    </font>
-    <font>
-      <color rgb="FF444444"/>
-      <name val="Sans-serif"/>
-    </font>
-    <font>
-      <sz val="7.0"/>
-      <color rgb="FF444444"/>
-      <name val="Sans-serif"/>
-    </font>
-    <font>
-      <i/>
-      <color rgb="FF444444"/>
-      <name val="Sans-serif"/>
-    </font>
     <font/>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Sans-serif"/>
-    </font>
-    <font>
-      <sz val="7.0"/>
-      <color rgb="FF000000"/>
-      <name val="Sans-serif"/>
-    </font>
-    <font>
-      <i/>
-      <color rgb="FF000000"/>
-      <name val="Sans-serif"/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -167,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -178,90 +139,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="39" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -296,7 +182,7 @@
     <col customWidth="1" min="1" max="1" width="30.14"/>
     <col customWidth="1" min="2" max="2" width="19.0"/>
     <col customWidth="1" min="3" max="5" width="8.71"/>
-    <col customWidth="1" min="6" max="6" width="19.14"/>
+    <col customWidth="1" min="6" max="6" width="21.43"/>
     <col customWidth="1" min="7" max="26" width="8.71"/>
   </cols>
   <sheetData>
@@ -315,346 +201,115 @@
       <c r="B2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="4"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="4"/>
     </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
+    <row r="10" ht="16.5" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="13"/>
+      <c r="B10" s="4"/>
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="13"/>
+      <c r="B11" s="6"/>
     </row>
-    <row r="12">
-      <c r="A12" s="19" t="s">
+    <row r="12" ht="16.5" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="13"/>
+      <c r="B12" s="6"/>
     </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="19" t="s">
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="13"/>
+      <c r="B13" s="6"/>
     </row>
-    <row r="14">
-      <c r="A14" s="19" t="s">
+    <row r="14" ht="16.5" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="13"/>
+      <c r="B14" s="6"/>
     </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="19" t="s">
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="13"/>
+      <c r="B15" s="6"/>
     </row>
-    <row r="16">
-      <c r="A16" s="19" t="s">
+    <row r="16" ht="16.5" customHeight="1">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="13"/>
+      <c r="B16" s="6"/>
     </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c r="A17" s="19" t="s">
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="13"/>
+      <c r="B17" s="6"/>
     </row>
-    <row r="18">
-      <c r="A18" s="19" t="s">
+    <row r="18" ht="16.5" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="F18" s="9"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="13"/>
+      <c r="B18" s="6"/>
     </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c r="A19" s="19" t="s">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="F19" s="9"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="13"/>
+      <c r="B19" s="6"/>
     </row>
-    <row r="20">
-      <c r="F20" s="9"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c r="F21" s="9"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="13"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="F22" s="9"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c r="F23" s="9"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="13"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="F24" s="9"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c r="F25" s="9"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="26"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="F26" s="9"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c r="F27" s="30"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="30"/>
-    </row>
+    <row r="20" ht="15.75" customHeight="1"/>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1"/>
     <row r="30" ht="15.75" customHeight="1"/>
@@ -1619,16 +1274,6 @@
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
